--- a/Assets/Resources/스탯설정배경설명.xlsx
+++ b/Assets/Resources/스탯설정배경설명.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkstk\Documents\Digimon_Diffense_Unity\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348F5C3-C001-4E5D-8426-0EED870B702A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2807FBC9-5749-49EC-B1E4-6B6222F47CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEF2B5CD-1AC6-4EBE-AAB4-02FF084BD500}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DEF2B5CD-1AC6-4EBE-AAB4-02FF084BD500}"/>
   </bookViews>
   <sheets>
     <sheet name="아군" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>Number</t>
   </si>
@@ -371,6 +371,28 @@
   </si>
   <si>
     <t>시라유키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유년기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유년기2</t>
+  </si>
+  <si>
+    <t>유년기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장기</t>
+  </si>
+  <si>
+    <t>성장기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,1026 +757,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13281C0-3B55-4C41-A113-D143514E15B6}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="19" max="19" width="23.375" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="18" max="18" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="23.375" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1144</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>184</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>242</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>120</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>70</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>652</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>146</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>149</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>105</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>70</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
       </c>
       <c r="R3" t="s">
         <v>43</v>
       </c>
       <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>879</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>201</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>162</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>130</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>70</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>53</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>736</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>340</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>21</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>280</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>70</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>742</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>157</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>130</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>105</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>70</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>38</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>35</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>40</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>41</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>48</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>545</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>154</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
         <v>70</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>56</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>41</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>57</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1395</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>396</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>83</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>150</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>70</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>16</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>35</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>73</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>74</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1526</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>236</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>362</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>120</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>70</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>932</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>216</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>214</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>105</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>70</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>93</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>91</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1060</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>235</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>187</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>105</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>70</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>38</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>35</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>91</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>920</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>487</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>67</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>280</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>91</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1993</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>583</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>119</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>150</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>70</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>72</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>35</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>91</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
       <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
         <v>30</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
       <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
         <v>35</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
         <v>30</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>16</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>200</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>55</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
       <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
         <v>40</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>200</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>55</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>30</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
       <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
         <v>40</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>200</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>55</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>24</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
       <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
         <v>40</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1043</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>496</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>66</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>25</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>280</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>70</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>16</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>94</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>35</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>91</v>
       </c>
     </row>
